--- a/schedule2.xlsx
+++ b/schedule2.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tasks 18 09 09" sheetId="1" r:id="rId1"/>
     <sheet name="new plan" sheetId="2" r:id="rId2"/>
     <sheet name="no school day plan" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="notes" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="notes" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="178">
   <si>
     <t>name</t>
   </si>
@@ -669,6 +670,145 @@
     <t xml:space="preserve"> 8pm - 8:30pm</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> 7:15am - 8am</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>11am - 12pm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3pm - 4pm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由时间</t>
+    <rPh sb="0" eb="1">
+      <t>zi'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>12pm - 1pm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1pm - 1：10pm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:10pm - 2pm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4pm - 5pm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>🎹🎹🎹🎹🎹🎹🎹</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由时间</t>
+    <rPh sb="0" eb="1">
+      <t>zi'you'shi'j</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>beestar</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象西湖</t>
+    <rPh sb="0" eb="1">
+      <t>yin'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'h</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>城西银泰</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'tai</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭,休息</t>
+    <rPh sb="0" eb="1">
+      <t>chi'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiu'x</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <rPh sb="0" eb="1">
+      <t>chi'f</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书/作文</t>
+    <rPh sb="0" eb="1">
+      <t>kan's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo'wen</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>练字</t>
+    <rPh sb="0" eb="1">
+      <t>lian'zi</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由/替代时间</t>
+    <rPh sb="0" eb="1">
+      <t>zi'you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>every day read a book,more in-depth see notes</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>古诗</t>
+    <rPh sb="0" eb="1">
+      <t>gu's</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -677,7 +817,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -925,8 +1065,34 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="华文新魏"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,8 +1175,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1112,43 +1306,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFA7D00"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFA7D00"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border>
       <left/>
       <right style="thin">
@@ -1161,21 +1318,6 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1203,17 +1345,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FFFA7D00"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="double">
@@ -1228,62 +1359,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1294,41 +1369,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFA7D00"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,32 +1416,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="9"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thick">
-        <color theme="9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
@@ -1417,41 +1431,6 @@
       </top>
       <bottom style="thick">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1472,17 +1451,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1517,24 +1485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1569,17 +1519,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1870,8 +1809,288 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top style="double">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1904,8 +2123,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
@@ -1949,337 +2170,471 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="35" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="41" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="46" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="16" fillId="8" borderId="46" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="47" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="48" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="49" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="46" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="51" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="24" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="25" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="32" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="35" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="44" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="45" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="43" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="42" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="16" borderId="8" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="25" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="29" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="32" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="56" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="16" borderId="57" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="16" borderId="42" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="16" borderId="58" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="41" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="59" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="60" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="35" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="64" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="62" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="65" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="35" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="60" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="66" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="57" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="69" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="70" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="72" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="73" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="19" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="29" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="43" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="44" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="46" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="47" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="48" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="46" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="47" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="50" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="51" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="52" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="53" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="54" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="58" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="56" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="59" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="60" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="61" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="62" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="64" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="63" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="65" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="66" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="67" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="16" fillId="8" borderId="67" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="68" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="69" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="70" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="67" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="71" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="72" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="39" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="42" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="24" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="45" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="39" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="18" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="75" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
     <cellStyle name="Accent1 2" xfId="12"/>
     <cellStyle name="Accent4 2" xfId="17"/>
     <cellStyle name="Accent6" xfId="5" builtinId="49"/>
     <cellStyle name="Accent6 2" xfId="11"/>
     <cellStyle name="Beestar" xfId="7"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
     <cellStyle name="Calculation 2" xfId="13"/>
     <cellStyle name="Check Cell 2" xfId="16"/>
     <cellStyle name="Class" xfId="8"/>
@@ -2306,7 +2661,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H31" totalsRowShown="0">
-  <autoFilter ref="A1:H31"/>
+  <autoFilter ref="A1:H31">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="low"/>
+        <filter val="medium"/>
+        <filter val="must"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:H31">
     <sortCondition ref="D1:D31"/>
   </sortState>
@@ -2590,7 +2953,7 @@
   <dimension ref="A1:XFA1048573"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A6" sqref="A6:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2637,7 +3000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13 16381:16381" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13 16381:16381" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -2649,7 +3012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13 16381:16381" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13 16381:16381" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2663,7 +3026,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13 16381:16381" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13 16381:16381" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,7 +3037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13 16381:16381" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13 16381:16381" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2719,7 +3082,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13 16381:16381" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13 16381:16381" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -2727,7 +3090,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2877,7 +3240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2888,7 +3251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2899,7 +3262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2910,7 +3273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2921,7 +3284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2932,7 +3295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
@@ -2946,7 +3309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2960,7 +3323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -2968,7 +3331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -2976,7 +3339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -2984,7 +3347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -3018,271 +3381,278 @@
   <dimension ref="A1:XFB1048576"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20" style="20" customWidth="1"/>
-    <col min="6" max="6" width="19" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11" style="20"/>
-    <col min="8" max="8" width="11.83203125" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="20"/>
+    <col min="1" max="1" width="14.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11" style="17"/>
+    <col min="8" max="8" width="11.83203125" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-      <c r="XFB1" s="20" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="XFB1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11 16382:16382" ht="67" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="84" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="111"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="111"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="111"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103">
+      <c r="A6" s="43">
         <v>0.1875</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="111"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="92"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:11 16382:16382" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="93" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="40" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="61" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="79" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="95"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:11 16382:16382" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="60" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="96"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="41" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:11 16382:16382" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="88"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="89"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="90"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="110"/>
+      <c r="A18" s="50"/>
     </row>
     <row r="1048576" spans="1:1 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1048576" s="20" t="s">
+      <c r="A1048576" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="XFB1048576" s="20" t="s">
+      <c r="XFB1048576" s="17" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B3:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -3295,7 +3665,706 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEX1048576"/>
+  <sheetViews>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection sqref="A1:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19" style="17" customWidth="1"/>
+    <col min="3" max="3" width="24" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11" style="17"/>
+    <col min="5" max="5" width="11.83203125" style="17" customWidth="1"/>
+    <col min="6" max="8" width="11" style="17"/>
+    <col min="9" max="9" width="11" style="32"/>
+    <col min="10" max="16384" width="11" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="XEX1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8 16378:16378" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="141"/>
+    </row>
+    <row r="4" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="142"/>
+    </row>
+    <row r="5" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="143"/>
+    </row>
+    <row r="6" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8 16378:16378" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="123"/>
+    </row>
+    <row r="8" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="124"/>
+    </row>
+    <row r="9" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="126"/>
+    </row>
+    <row r="11" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="126"/>
+    </row>
+    <row r="12" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8 16378:16378" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="144"/>
+    </row>
+    <row r="16" spans="1:8 16378:16378" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="142"/>
+    </row>
+    <row r="18" spans="1:3" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+    </row>
+    <row r="20" spans="1:3" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" spans="1:1 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1048576" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="XEX1048576" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="18" style="107"/>
+    <col min="8" max="8" width="24" style="107" customWidth="1"/>
+    <col min="9" max="16384" width="18" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="115">
+        <v>43374</v>
+      </c>
+      <c r="C1" s="115">
+        <v>43375</v>
+      </c>
+      <c r="D1" s="115">
+        <v>43376</v>
+      </c>
+      <c r="E1" s="115">
+        <v>43377</v>
+      </c>
+      <c r="F1" s="115">
+        <v>43378</v>
+      </c>
+      <c r="G1" s="115">
+        <v>43379</v>
+      </c>
+      <c r="H1" s="116">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="80"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="161" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="166"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="154"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="101"/>
+      <c r="K7" s="108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="152" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="164" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="101"/>
+      <c r="K9" s="109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="118"/>
+      <c r="D10" s="161" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="158"/>
+      <c r="I10" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="158"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="160" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="101"/>
+      <c r="K13" s="102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="128" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="118"/>
+      <c r="C16" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="156" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="132"/>
+    </row>
+    <row r="17" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="118"/>
+      <c r="C17" s="156" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="157" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="118"/>
+      <c r="C18" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+    </row>
+    <row r="19" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+    </row>
+    <row r="20" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="137"/>
+    </row>
+    <row r="21" spans="1:8" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3308,261 +4377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEX1048576"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19" style="20" customWidth="1"/>
-    <col min="3" max="3" width="24" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11" style="20"/>
-    <col min="5" max="5" width="11.83203125" style="20" customWidth="1"/>
-    <col min="6" max="8" width="11" style="20"/>
-    <col min="9" max="9" width="11" style="65"/>
-    <col min="10" max="16384" width="11" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="I1" s="65"/>
-      <c r="XEX1" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9 16378:16378" s="20" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="I3" s="65"/>
-    </row>
-    <row r="4" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="I4" s="65"/>
-    </row>
-    <row r="5" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="I5" s="65"/>
-    </row>
-    <row r="6" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="65"/>
-    </row>
-    <row r="7" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="114"/>
-      <c r="I7" s="65"/>
-    </row>
-    <row r="8" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="I8" s="65"/>
-    </row>
-    <row r="9" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="65"/>
-    </row>
-    <row r="10" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="I10" s="65"/>
-    </row>
-    <row r="11" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="I11" s="65"/>
-    </row>
-    <row r="12" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" s="65"/>
-    </row>
-    <row r="13" spans="1:9 16378:16378" s="20" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="65"/>
-    </row>
-    <row r="14" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="65"/>
-    </row>
-    <row r="15" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="I15" s="65"/>
-    </row>
-    <row r="16" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="65"/>
-    </row>
-    <row r="17" spans="1:9" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="I17" s="65"/>
-    </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="49"/>
-      <c r="I18" s="65"/>
-    </row>
-    <row r="19" spans="1:9" s="20" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="57"/>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="1:9" s="20" customFormat="1" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I20" s="65"/>
-    </row>
-    <row r="1048576" spans="1:9 16378:16378" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1048576" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1048576" s="65"/>
-      <c r="XEX1048576" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3572,7 +4387,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="75"/>
+    <col min="1" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3591,81 +4406,81 @@
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="33" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="35">
         <v>1</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="34" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="35">
         <v>0.2</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="34" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="35">
         <v>0.9</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="34" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="35">
         <v>0.8</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="35">
         <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3675,7 +4490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3686,140 +4501,140 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="27" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/schedule2.xlsx
+++ b/schedule2.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="tasks 18 09 09" sheetId="1" r:id="rId1"/>
-    <sheet name="new plan" sheetId="2" r:id="rId2"/>
-    <sheet name="no school day plan" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="weekday plan" sheetId="2" r:id="rId2"/>
+    <sheet name="weekend plan" sheetId="3" r:id="rId3"/>
+    <sheet name="national day" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
     <sheet name="notes" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
   <si>
     <t>name</t>
   </si>
@@ -2293,67 +2293,85 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="25" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="32" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="35" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="64" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="65" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="60" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="66" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="18" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2383,19 +2401,115 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="32" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="57" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="69" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="70" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="72" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="59" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="60" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2404,58 +2518,91 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="62" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="73" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="16" borderId="8" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="19" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="75" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="35" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="56" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="41" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2464,166 +2611,19 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="56" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="16" borderId="57" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="16" borderId="8" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="16" borderId="42" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="16" borderId="58" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="41" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="59" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="60" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="35" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="64" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="62" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="65" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="35" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="60" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="66" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="57" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="69" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="70" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="72" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="73" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="19" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="18" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="75" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3398,22 +3398,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="90" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="15"/>
@@ -3423,12 +3423,12 @@
       </c>
     </row>
     <row r="2" spans="1:11 16382:16382" ht="67" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="36" t="s">
         <v>135</v>
       </c>
@@ -3441,52 +3441,52 @@
       <c r="A3" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
     </row>
     <row r="6" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
         <v>0.1875</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="92"/>
+      <c r="E7" s="92" t="s">
         <v>101</v>
       </c>
       <c r="F7" s="39"/>
@@ -3495,12 +3495,12 @@
       <c r="A8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="40" t="s">
         <v>102</v>
       </c>
@@ -3512,12 +3512,12 @@
       <c r="B9" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="97" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3528,44 +3528,44 @@
       <c r="B10" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="72" t="s">
+      <c r="D11" s="105"/>
+      <c r="E11" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="98"/>
     </row>
     <row r="12" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="62"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="98"/>
     </row>
     <row r="13" spans="1:11 16382:16382" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
@@ -3574,12 +3574,12 @@
       <c r="B13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="75"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="99"/>
     </row>
     <row r="14" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
@@ -3605,13 +3605,13 @@
       <c r="A15" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
     </row>
     <row r="16" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
@@ -3646,13 +3646,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B3:F6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -3665,6 +3658,13 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,7 +3676,7 @@
   <dimension ref="A1:XEX1048576"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3692,13 +3692,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="115" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="15"/>
@@ -3708,9 +3708,9 @@
       </c>
     </row>
     <row r="2" spans="1:8 16378:16378" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="140"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="36" t="s">
         <v>135</v>
       </c>
@@ -3723,35 +3723,35 @@
       <c r="A3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="141"/>
+      <c r="C3" s="118"/>
     </row>
     <row r="4" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="142"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
     </row>
     <row r="5" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="143"/>
+      <c r="C5" s="122"/>
     </row>
     <row r="6" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="123" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3759,17 +3759,17 @@
       <c r="A7" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="123"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="124"/>
     </row>
     <row r="8" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="124"/>
+      <c r="C8" s="134"/>
     </row>
     <row r="9" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
@@ -3778,7 +3778,7 @@
       <c r="B9" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="127" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       <c r="B10" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="126"/>
+      <c r="C10" s="128"/>
     </row>
     <row r="11" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
@@ -3798,36 +3798,36 @@
       <c r="B11" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="126"/>
+      <c r="C11" s="128"/>
     </row>
     <row r="12" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="69" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:8 16378:16378" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="128" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="70" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="72" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="131" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       <c r="B15" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="144"/>
+      <c r="C15" s="132"/>
     </row>
     <row r="16" spans="1:8 16378:16378" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
@@ -3847,18 +3847,18 @@
       <c r="B16" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="120"/>
     </row>
     <row r="18" spans="1:3" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -3868,11 +3868,11 @@
       <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:3" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
     </row>
     <row r="20" spans="1:3" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" spans="1:1 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -3885,11 +3885,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B6:B7"/>
@@ -3897,6 +3892,11 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3908,56 +3908,56 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:H5"/>
+      <selection activeCell="D11" sqref="D11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="18" style="107"/>
-    <col min="8" max="8" width="24" style="107" customWidth="1"/>
-    <col min="9" max="16384" width="18" style="107"/>
+    <col min="1" max="7" width="18" style="65"/>
+    <col min="8" max="8" width="24" style="65" customWidth="1"/>
+    <col min="9" max="16384" width="18" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="115">
+      <c r="B1" s="162">
         <v>43374</v>
       </c>
-      <c r="C1" s="115">
+      <c r="C1" s="162">
         <v>43375</v>
       </c>
-      <c r="D1" s="115">
+      <c r="D1" s="162">
         <v>43376</v>
       </c>
-      <c r="E1" s="115">
+      <c r="E1" s="162">
         <v>43377</v>
       </c>
-      <c r="F1" s="115">
+      <c r="F1" s="162">
         <v>43378</v>
       </c>
-      <c r="G1" s="115">
+      <c r="G1" s="162">
         <v>43379</v>
       </c>
-      <c r="H1" s="116">
+      <c r="H1" s="164">
         <v>43380</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="97" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3965,20 +3965,20 @@
       <c r="A3" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="100" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3986,26 +3986,26 @@
       <c r="A4" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="97" t="s">
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4013,18 +4013,18 @@
       <c r="A5" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="100" t="s">
+      <c r="B5" s="147"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="61" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4032,24 +4032,22 @@
       <c r="A6" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="88" t="s">
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="97" t="s">
+      <c r="H6" s="123"/>
+      <c r="I6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99" t="s">
+      <c r="J6" s="57"/>
+      <c r="K6" s="58" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4057,18 +4055,18 @@
       <c r="A7" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="100" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="108" t="s">
+      <c r="J7" s="60"/>
+      <c r="K7" s="66" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4076,20 +4074,20 @@
       <c r="A8" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="97" t="s">
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98" t="s">
+      <c r="J8" s="57"/>
+      <c r="K8" s="57" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4097,24 +4095,24 @@
       <c r="A9" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="100" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="101"/>
-      <c r="K9" s="109" t="s">
+      <c r="J9" s="60"/>
+      <c r="K9" s="67" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4122,26 +4120,26 @@
       <c r="A10" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="161" t="s">
+      <c r="C10" s="135"/>
+      <c r="D10" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="149"/>
       <c r="G10" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="97" t="s">
+      <c r="H10" s="148"/>
+      <c r="I10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4149,20 +4147,20 @@
       <c r="A11" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="151" t="s">
+      <c r="B11" s="148"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="100" t="s">
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102" t="s">
+      <c r="J11" s="60"/>
+      <c r="K11" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4170,22 +4168,22 @@
       <c r="A12" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="97" t="s">
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99" t="s">
+      <c r="J12" s="57"/>
+      <c r="K12" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4193,72 +4191,72 @@
       <c r="A13" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="111" t="s">
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102" t="s">
+      <c r="J13" s="60"/>
+      <c r="K13" s="61" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="128" t="s">
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99" t="s">
+      <c r="J14" s="57"/>
+      <c r="K14" s="58" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="130" t="s">
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="103" t="s">
+      <c r="I15" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105" t="s">
+      <c r="J15" s="63"/>
+      <c r="K15" s="64" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4266,88 +4264,86 @@
       <c r="A16" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="113" t="s">
+      <c r="B16" s="135"/>
+      <c r="C16" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="156" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="132"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="152"/>
     </row>
     <row r="17" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="156" t="s">
+      <c r="B17" s="135"/>
+      <c r="C17" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="157" t="s">
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="133" t="s">
+      <c r="H17" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="87" t="s">
+      <c r="B18" s="135"/>
+      <c r="C18" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
     </row>
     <row r="19" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="135" t="s">
+      <c r="A20" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="137"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
     </row>
     <row r="21" spans="1:8" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="E4:H5"/>
@@ -4361,16 +4357,16 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4382,7 +4378,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/schedule2.xlsx
+++ b/schedule2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tasks 18 09 09" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="184">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>description(optional)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>goal</t>
@@ -48,19 +48,19 @@
   </si>
   <si>
     <t>acheivement</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>completeness</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>goals</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>thoughts</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>end</t>
@@ -73,37 +73,37 @@
   </si>
   <si>
     <t>must</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">keep </t>
   </si>
   <si>
     <t>I DECIDE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>low</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>workout</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3*(20leg lift+10push up)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>vex</t>
   </si>
   <si>
     <t>sensors on</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>school homework</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>homework</t>
@@ -116,60 +116,60 @@
   </si>
   <si>
     <t>each week finish a poem from white book</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>medium</t>
   </si>
   <si>
     <t>clean up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>keep desk neat,bookshelf in order</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>jump rope</t>
   </si>
   <si>
     <t>300 a day. Try to speed up as fast as 200 a minute</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>math</t>
   </si>
   <si>
     <t>each week finish a chapter's C</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>piano</t>
   </si>
   <si>
     <t>599 one week one song</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>programming</t>
   </si>
   <si>
     <t>finish purple book,may also read blue book at some times(one month one-two chapter(s))(try to finish a chapter within 2 weeks)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>reading</t>
   </si>
   <si>
     <t>every day read a book,more in-depth see new plan</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>writing</t>
   </si>
   <si>
     <t>every week 2 hours mom writing time</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>bicycle</t>
@@ -179,7 +179,7 @@
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tai kwon do</t>
@@ -192,7 +192,7 @@
   </si>
   <si>
     <t>7 laps a week</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>running</t>
@@ -217,11 +217,11 @@
   </si>
   <si>
     <t>punch</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>class</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ixl</t>
@@ -246,14 +246,14 @@
   </si>
   <si>
     <t>swimming</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>soccer</t>
   </si>
   <si>
     <t>dancing?</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>handwriting chinese</t>
@@ -263,20 +263,20 @@
     <rPh sb="0" eb="1">
       <t>ke'ke'l</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>medium</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>math(class)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Day of the week            
 Start Time(pm)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Monday</t>
@@ -307,11 +307,11 @@
     <rPh sb="0" eb="1">
       <t>shang'k</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>XES周五下午6：00-8：20</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>拳击周六10：00-11：30</t>
@@ -321,7 +321,7 @@
     <rPh sb="2" eb="3">
       <t>zhou'l</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>口才课周日1：30-4：15</t>
@@ -331,7 +331,7 @@
     <rPh sb="3" eb="4">
       <t>zhou'r</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>游泳周六4：00-5：30</t>
@@ -341,30 +341,30 @@
     <rPh sb="2" eb="3">
       <t>zhou'l</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4:30 - 5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>街舞？</t>
     <rPh sb="0" eb="1">
       <t>jie'wu</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 5pm - 5:30</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>programming</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>writing</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Goals</t>
@@ -374,38 +374,38 @@
   </si>
   <si>
     <t>eat</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 7 - 8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>beestar</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>piano</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>math</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>reading</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8:30 - 9pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>锻炼，😴</t>
   </si>
   <si>
     <t>add outdoor jump rope to workout</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -415,38 +415,38 @@
   </si>
   <si>
     <t>on the road</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>homework</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 5:30 - 6:30pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 6:30pm - 7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>beestar(gt)</t>
   </si>
   <si>
     <t>8:40 --</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8:10 - 8:40</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8-8:10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cleanup</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 8am - 9am</t>
@@ -465,35 +465,35 @@
   </si>
   <si>
     <t>XES</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>11am - 11:30pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Punch</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1:30pm - 2pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>11:30pm - 1:30pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 3pm - 4:15pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 4:15pm - 5pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Speech</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>（回来）吃饭</t>
@@ -503,29 +503,29 @@
     <rPh sb="4" eb="5">
       <t>chi'f</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收拾</t>
     <rPh sb="0" eb="1">
       <t>shou's</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>编程</t>
     <rPh sb="0" eb="1">
       <t>bian'c</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>swimming(starting 4 o'clock</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>🎹🎹🎹🎹🎹🎹</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>起床，吃饭</t>
@@ -535,76 +535,76 @@
     <rPh sb="3" eb="4">
       <t>chi'f</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>锻炼，😴</t>
     <rPh sb="0" eb="1">
       <t>duang'l</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>jump rope:Tuesday,Thursday,Saturday</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>(ending 9:30)programming</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 5pm - 6pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6pm - 7pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>古诗（alternate with handwriting)</t>
     <rPh sb="0" eb="1">
       <t>gu'shi</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>负责</t>
     <rPh sb="0" eb="1">
       <t>fu'z</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">reading </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Robin Hood How2persuade How2Read</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">What If </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            Day of the    week            
 Start Time</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>task</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>comments</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>作业</t>
     <rPh sb="0" eb="1">
       <t>zuo'ye</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>到钢琴课（有时间作业）</t>
@@ -617,74 +617,74 @@
     <rPh sb="8" eb="9">
       <t>zuo'y</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>作业</t>
     <rPh sb="0" eb="1">
       <t>zuo'y</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>higher speed</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>maybe add one more math session</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>no72 acurracy plus speed</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>look at other people playing</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>higher speed efficency</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>before setting goal,look how many is the task</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>robin hood</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>soccer</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 7 - 7:30</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 7am</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 8pm - 8:30pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 7:15am - 8am</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>11am - 12pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 3pm - 4pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>math</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>自由时间</t>
@@ -694,42 +694,42 @@
     <rPh sb="2" eb="3">
       <t>shi'j</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>12pm - 1pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1pm - 1：10pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1:10pm - 2pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4pm - 5pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>🎹🎹🎹🎹🎹🎹🎹</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>自由时间</t>
     <rPh sb="0" eb="1">
       <t>zi'you'shi'j</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>beestar</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>印象西湖</t>
@@ -739,7 +739,7 @@
     <rPh sb="2" eb="3">
       <t>xi'h</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>城西银泰</t>
@@ -749,7 +749,7 @@
     <rPh sb="2" eb="3">
       <t>yin'tai</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>吃饭,休息</t>
@@ -759,14 +759,14 @@
     <rPh sb="3" eb="4">
       <t>xiu'x</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>吃饭</t>
     <rPh sb="0" eb="1">
       <t>chi'f</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>看书/作文</t>
@@ -776,14 +776,14 @@
     <rPh sb="3" eb="4">
       <t>zuo'wen</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>练字</t>
     <rPh sb="0" eb="1">
       <t>lian'zi</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>自由/替代时间</t>
@@ -796,18 +796,45 @@
     <rPh sb="5" eb="6">
       <t>shi'j</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>every day read a book,more in-depth see notes</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>古诗</t>
     <rPh sb="0" eb="1">
       <t>gu's</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人</t>
+    <rPh sb="0" eb="1">
+      <t>ji'qi'r</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:55 --</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>handwriting</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese+reading</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9pm-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -817,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -836,14 +863,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1091,6 +1110,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -1204,7 +1241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1243,15 +1280,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1606,17 +1634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1626,43 +1643,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="double">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="double">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="double">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1799,17 +1779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFA7D00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -2089,55 +2058,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyBorder="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyBorder="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyBorder="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2146,85 +2137,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2233,421 +2218,417 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="35" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="41" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="46" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="16" fillId="8" borderId="46" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="47" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="48" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="49" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="46" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="51" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="24" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="25" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="8" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="44" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="45" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="24" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="18" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="18" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="35" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="64" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="65" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="60" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="54" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="66" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="18" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="35" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="44" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="60" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="17" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="39" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="45" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="40" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="43" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="42" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="32" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="57" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="69" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="70" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="72" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="59" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="60" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="35" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="26" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="62" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="73" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="56" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="67" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="51" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="63" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="64" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="66" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="51" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="7" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="37" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="52" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="34" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="50" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="19" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="75" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="35" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="56" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="41" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="16" borderId="57" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="16" borderId="8" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="16" borderId="42" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="16" borderId="58" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="18" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="69" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="70" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="36" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Accent1 2" xfId="12"/>
-    <cellStyle name="Accent4 2" xfId="17"/>
-    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
-    <cellStyle name="Accent6 2" xfId="11"/>
-    <cellStyle name="Beestar" xfId="7"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Calculation 2" xfId="13"/>
-    <cellStyle name="Check Cell 2" xfId="16"/>
-    <cellStyle name="Class" xfId="8"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Keep" xfId="9"/>
-    <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
+  <cellStyles count="31">
+    <cellStyle name="Accent1" xfId="18" builtinId="29"/>
+    <cellStyle name="Accent1 2" xfId="11"/>
+    <cellStyle name="Accent4 2" xfId="16"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="Accent6 2" xfId="10"/>
+    <cellStyle name="Beestar" xfId="6"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22"/>
+    <cellStyle name="Calculation 2" xfId="12"/>
+    <cellStyle name="Check Cell 2" xfId="15"/>
+    <cellStyle name="Class" xfId="7"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Keep" xfId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Output 2" xfId="14"/>
-    <cellStyle name="Programming" xfId="10"/>
-    <cellStyle name="Total" xfId="4" builtinId="25"/>
-    <cellStyle name="Warning Text 2" xfId="15"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Output 2" xfId="13"/>
+    <cellStyle name="Programming" xfId="9"/>
+    <cellStyle name="Total" xfId="3" builtinId="25"/>
+    <cellStyle name="Warning Text 2" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2953,7 +2934,7 @@
   <dimension ref="A1:XFA1048573"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C20"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3367,7 +3348,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
@@ -3380,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB1048576"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3398,22 +3379,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="100" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="15"/>
@@ -3423,234 +3404,240 @@
       </c>
     </row>
     <row r="2" spans="1:11 16382:16382" ht="67" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="36" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43">
+      <c r="A6" s="38">
         <v>0.1875</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:11 16382:16382" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="40" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="25" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="156" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="79"/>
+      <c r="E10" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="157"/>
     </row>
     <row r="11" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="108" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="98"/>
+      <c r="F11" s="157"/>
     </row>
     <row r="12" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="93" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="98"/>
-    </row>
-    <row r="13" spans="1:11 16382:16382" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="E12" s="89"/>
+      <c r="F12" s="157"/>
+    </row>
+    <row r="13" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="157"/>
     </row>
     <row r="14" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11 16382:16382" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="F14" s="158"/>
+    </row>
+    <row r="15" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-    </row>
-    <row r="16" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="37"/>
-    </row>
-    <row r="17" spans="1:6" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="1:6" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+    </row>
+    <row r="17" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+    </row>
+    <row r="1048575" spans="1:1 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1048575" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1048576" spans="1:1 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1048576" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="XFB1048576" s="17" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B3:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E7:E8"/>
@@ -3658,15 +3645,9 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:F6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F9:F14"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3676,7 +3657,7 @@
   <dimension ref="A1:XEX1048576"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3687,18 +3668,18 @@
     <col min="4" max="4" width="11" style="17"/>
     <col min="5" max="5" width="11.83203125" style="17" customWidth="1"/>
     <col min="6" max="8" width="11" style="17"/>
-    <col min="9" max="9" width="11" style="32"/>
+    <col min="9" max="9" width="11" style="30"/>
     <col min="10" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="118" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="15"/>
@@ -3708,197 +3689,195 @@
       </c>
     </row>
     <row r="2" spans="1:8 16378:16378" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="36" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="118"/>
+      <c r="C3" s="121"/>
     </row>
     <row r="4" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
     </row>
     <row r="5" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="123"/>
     </row>
     <row r="6" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="123" t="s">
-        <v>142</v>
+      <c r="C6" s="102" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8 16378:16378" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="124"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="103"/>
     </row>
     <row r="8" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="115"/>
     </row>
     <row r="9" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="108" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="128"/>
+      <c r="C10" s="109"/>
     </row>
     <row r="11" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="109"/>
     </row>
     <row r="12" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="63" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:8 16378:16378" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="111"/>
+      <c r="C13" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="112" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="132"/>
+      <c r="C15" s="113"/>
     </row>
     <row r="16" spans="1:8 16378:16378" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+    <row r="17" spans="1:3" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="159"/>
+    </row>
+    <row r="18" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="120"/>
-    </row>
-    <row r="18" spans="1:3" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="37"/>
-    </row>
-    <row r="19" spans="1:3" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-    </row>
-    <row r="20" spans="1:3" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="C18" s="105"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="1048575" spans="1:1 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1048575" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="1048576" spans="1:1 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1048576" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="XEX1048576" s="17" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3907,433 +3886,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:H11"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="18" style="65"/>
-    <col min="8" max="8" width="24" style="65" customWidth="1"/>
-    <col min="9" max="16384" width="18" style="65"/>
+    <col min="1" max="7" width="18" style="59"/>
+    <col min="8" max="8" width="24" style="59" customWidth="1"/>
+    <col min="9" max="16384" width="18" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="162">
+      <c r="B1" s="124">
         <v>43374</v>
       </c>
-      <c r="C1" s="162">
+      <c r="C1" s="124">
         <v>43375</v>
       </c>
-      <c r="D1" s="162">
+      <c r="D1" s="124">
         <v>43376</v>
       </c>
-      <c r="E1" s="162">
+      <c r="E1" s="124">
         <v>43377</v>
       </c>
-      <c r="F1" s="162">
+      <c r="F1" s="124">
         <v>43378</v>
       </c>
-      <c r="G1" s="162">
+      <c r="G1" s="124">
         <v>43379</v>
       </c>
-      <c r="H1" s="164">
+      <c r="H1" s="126">
         <v>43380</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="56" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="59" t="s">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="143" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="143" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="56" t="s">
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="59" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61" t="s">
+      <c r="J5" s="54"/>
+      <c r="K5" s="55" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="125" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="102"/>
+      <c r="I6" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="52" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="59" t="s">
+      <c r="B7" s="151"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="66" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="60" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="56" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57" t="s">
+      <c r="J8" s="51"/>
+      <c r="K8" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="59" t="s">
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="67" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="61" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136" t="s">
+      <c r="C10" s="128"/>
+      <c r="D10" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="159" t="s">
+      <c r="E10" s="143"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="56" t="s">
+      <c r="H10" s="140"/>
+      <c r="I10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="52" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="138" t="s">
+      <c r="B11" s="140"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="59" t="s">
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135" t="s">
+      <c r="C12" s="128"/>
+      <c r="D12" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="56" t="s">
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="160" t="s">
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="70" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="52" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="131" t="s">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64" t="s">
+      <c r="J15" s="57"/>
+      <c r="K15" s="58" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="151" t="s">
+      <c r="B16" s="128"/>
+      <c r="C16" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="152"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="80" t="s">
+      <c r="B17" s="128"/>
+      <c r="C17" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="128" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="81" t="s">
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="119" t="s">
+      <c r="B18" s="128"/>
+      <c r="C18" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="B15:B18"/>
@@ -4350,25 +4346,8 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4383,7 +4362,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4402,86 +4381,86 @@
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>0.2</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>0.9</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>0.8</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4634,7 +4613,7 @@
     </row>
     <row r="17" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/schedule2.xlsx
+++ b/schedule2.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="620" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="tasks 18 09 09" sheetId="1" r:id="rId1"/>
+    <sheet name="tasks 18" sheetId="1" r:id="rId1"/>
     <sheet name="weekday plan" sheetId="2" r:id="rId2"/>
-    <sheet name="weekend plan" sheetId="3" r:id="rId3"/>
-    <sheet name="national day" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="notes" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="weekend plan" sheetId="3" r:id="rId4"/>
+    <sheet name="national day" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="notes" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
   <si>
     <t>name</t>
   </si>
@@ -834,6 +835,34 @@
   </si>
   <si>
     <t>9pm-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>relaxation time(unless there's homework)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISHED TIGHTENING&amp;MOTOR PROBLEM!</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish chapter 6 and one exercize</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>only did the handwriting that syncs with the chinese book</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>forget sometimes due to reviewing chinese</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>run more smoothly</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1609,17 +1638,6 @@
       <right/>
       <top style="thin">
         <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2067,6 +2085,30 @@
         <color theme="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2221,34 +2263,34 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="40" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="8" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="15" fillId="8" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="44" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="45" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="44" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2265,73 +2307,73 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="24" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="18" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="18" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="57" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="54" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="53" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="60" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="59" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2341,39 +2383,39 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2395,19 +2437,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="69" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="35" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="39" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="40" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2416,34 +2473,28 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="29" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="35" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="36" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="34" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="52" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2452,91 +2503,49 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="26" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="56" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="67" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="55" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="66" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="51" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="50" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="62" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="63" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="64" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="66" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="16" borderId="51" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="65" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="50" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="16" borderId="7" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="16" borderId="37" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="16" borderId="52" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="34" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="50" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2545,22 +2554,58 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="36" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="51" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="33" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="49" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="35" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2578,22 +2623,19 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="69" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="70" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="36" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="68" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2934,7 +2976,7 @@
   <dimension ref="A1:XFA1048573"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A6" sqref="A6:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3361,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F6"/>
     </sheetView>
   </sheetViews>
@@ -3379,22 +3421,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11 16382:16382" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="105" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="15"/>
@@ -3404,12 +3446,12 @@
       </c>
     </row>
     <row r="2" spans="1:11 16382:16382" ht="67" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="34" t="s">
         <v>135</v>
       </c>
@@ -3422,39 +3464,39 @@
       <c r="A3" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
     </row>
     <row r="5" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
     </row>
     <row r="6" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
         <v>0.1875</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
     </row>
     <row r="7" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
@@ -3464,10 +3506,10 @@
         <v>101</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="85" t="s">
         <v>101</v>
       </c>
       <c r="F7" s="35"/>
@@ -3477,11 +3519,9 @@
         <v>85</v>
       </c>
       <c r="B8" s="92"/>
-      <c r="C8" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="36" t="s">
         <v>102</v>
       </c>
@@ -3493,12 +3533,14 @@
       <c r="B9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="78"/>
       <c r="E9" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="156" t="s">
+      <c r="F9" s="93" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3509,14 +3551,14 @@
       <c r="B10" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="79"/>
+      <c r="C10" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="84"/>
       <c r="E10" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="157"/>
+      <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
@@ -3525,28 +3567,26 @@
       <c r="B11" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="85"/>
+      <c r="C11" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>102</v>
+      </c>
       <c r="E11" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="157"/>
+      <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="87"/>
-      <c r="C12" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>102</v>
-      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="89"/>
-      <c r="F12" s="157"/>
+      <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
@@ -3555,12 +3595,14 @@
       <c r="B13" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="91"/>
+      <c r="C13" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="97"/>
       <c r="E13" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="157"/>
+      <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
@@ -3578,7 +3620,7 @@
       <c r="E14" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="158"/>
+      <c r="F14" s="95"/>
     </row>
     <row r="15" spans="1:11 16382:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
@@ -3604,13 +3646,13 @@
       <c r="A16" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
@@ -3634,18 +3676,18 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F9:F14"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3653,6 +3695,112 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX1048576"/>
   <sheetViews>
@@ -3673,13 +3821,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="15"/>
@@ -3689,9 +3837,9 @@
       </c>
     </row>
     <row r="2" spans="1:8 16378:16378" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="119"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="34" t="s">
         <v>135</v>
       </c>
@@ -3704,35 +3852,35 @@
       <c r="A3" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="121"/>
+      <c r="C3" s="125"/>
     </row>
     <row r="4" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
     </row>
     <row r="5" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="123"/>
+      <c r="C5" s="127"/>
     </row>
     <row r="6" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="107" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3740,17 +3888,17 @@
       <c r="A7" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="108"/>
     </row>
     <row r="8" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="118"/>
     </row>
     <row r="9" spans="1:8 16378:16378" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
@@ -3759,7 +3907,7 @@
       <c r="B9" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="111" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3770,7 +3918,7 @@
       <c r="B10" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="109"/>
+      <c r="C10" s="112"/>
     </row>
     <row r="11" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
@@ -3779,13 +3927,13 @@
       <c r="B11" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="109"/>
+      <c r="C11" s="112"/>
     </row>
     <row r="12" spans="1:8 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="113" t="s">
         <v>126</v>
       </c>
       <c r="C12" s="63" t="s">
@@ -3796,7 +3944,7 @@
       <c r="A13" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="64" t="s">
         <v>127</v>
       </c>
@@ -3808,7 +3956,7 @@
       <c r="B14" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="115" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3819,7 +3967,7 @@
       <c r="B15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="116"/>
     </row>
     <row r="16" spans="1:8 16378:16378" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
@@ -3836,19 +3984,19 @@
       <c r="A17" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="159"/>
+      <c r="C17" s="119"/>
     </row>
     <row r="18" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="81"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2"/>
     <row r="1048575" spans="1:1 16378:16378" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -3882,7 +4030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -3898,40 +4046,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="124">
+      <c r="B1" s="128">
         <v>43374</v>
       </c>
-      <c r="C1" s="124">
+      <c r="C1" s="128">
         <v>43375</v>
       </c>
-      <c r="D1" s="124">
+      <c r="D1" s="128">
         <v>43376</v>
       </c>
-      <c r="E1" s="124">
+      <c r="E1" s="128">
         <v>43377</v>
       </c>
-      <c r="F1" s="124">
+      <c r="F1" s="128">
         <v>43378</v>
       </c>
-      <c r="G1" s="124">
+      <c r="G1" s="128">
         <v>43379</v>
       </c>
-      <c r="H1" s="126">
+      <c r="H1" s="132">
         <v>43380</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="127"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="133"/>
       <c r="I2" s="50" t="s">
         <v>12</v>
       </c>
@@ -3944,15 +4092,15 @@
       <c r="A3" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="130"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="136"/>
       <c r="I3" s="53" t="s">
         <v>17</v>
       </c>
@@ -3965,21 +4113,21 @@
       <c r="A4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="144" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
       <c r="I4" s="50" t="s">
         <v>22</v>
       </c>
@@ -3992,13 +4140,13 @@
       <c r="A5" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="135"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="53" t="s">
         <v>33</v>
       </c>
@@ -4011,17 +4159,17 @@
       <c r="A6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="106" t="s">
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="50" t="s">
         <v>35</v>
       </c>
@@ -4034,13 +4182,13 @@
       <c r="A7" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="103"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="108"/>
       <c r="I7" s="53" t="s">
         <v>65</v>
       </c>
@@ -4053,15 +4201,15 @@
       <c r="A8" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="148" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="149"/>
       <c r="I8" s="50" t="s">
         <v>9</v>
       </c>
@@ -4077,16 +4225,16 @@
       <c r="B9" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="109"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="53" t="s">
         <v>15</v>
       </c>
@@ -4099,19 +4247,19 @@
       <c r="A10" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="143" t="s">
+      <c r="C10" s="134"/>
+      <c r="D10" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="139" t="s">
+      <c r="E10" s="144"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="140"/>
+      <c r="H10" s="156"/>
       <c r="I10" s="50" t="s">
         <v>19</v>
       </c>
@@ -4126,15 +4274,15 @@
       <c r="A11" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="140"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="145" t="s">
+      <c r="B11" s="156"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
       <c r="I11" s="53" t="s">
         <v>25</v>
       </c>
@@ -4150,14 +4298,14 @@
       <c r="B12" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128" t="s">
+      <c r="C12" s="134"/>
+      <c r="D12" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="130"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="136"/>
       <c r="I12" s="50" t="s">
         <v>27</v>
       </c>
@@ -4170,14 +4318,14 @@
       <c r="A13" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="141" t="s">
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="130" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="63" t="s">
@@ -4195,14 +4343,14 @@
       <c r="A14" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="131"/>
       <c r="H14" s="64" t="s">
         <v>166</v>
       </c>
@@ -4218,17 +4366,17 @@
       <c r="A15" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="112" t="s">
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="115" t="s">
         <v>87</v>
       </c>
       <c r="I15" s="56" t="s">
@@ -4243,29 +4391,29 @@
       <c r="A16" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="132" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="158"/>
       <c r="G16" s="72"/>
-      <c r="H16" s="133"/>
+      <c r="H16" s="139"/>
     </row>
     <row r="17" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="73" t="s">
         <v>159</v>
       </c>
@@ -4277,15 +4425,15 @@
       <c r="A18" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="104" t="s">
+      <c r="B18" s="134"/>
+      <c r="C18" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:8" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
@@ -4313,32 +4461,23 @@
     <row r="21" spans="1:8" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="D9:H9"/>
@@ -4346,13 +4485,22 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="B13:F13"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4465,7 +4613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
